--- a/biology/Botanique/Arbre_de_Judée/Arbre_de_Judée.xlsx
+++ b/biology/Botanique/Arbre_de_Judée/Arbre_de_Judée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
+          <t>Arbre_de_Judée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cercis siliquastrum
 L'Arbre de Judée (Cercis siliquastrum), ou Gainier silicastre, aussi appelé arbre de Jérusalem ou Jérusalem en Nouvelle-Calédonie, est une espèce d'arbres de la famille des Fabaceae (anciennement des Caesalpiniaceae), sous-famille des Caesalpinioideae et du genre Cercis. Son feuillage est caduc et il est originaire du sud de l'Europe et de l'ouest de l'Asie.
-Selon une légende, c'est à cet arbre que Judas se serait pendu après avoir trahi Jésus Christ. L'origine de cette légende n'est pas connue mais  est peut-être due à la forme de ses feuilles, rondes et plates comme des monnaies, ou bien aux gousses noires qui pendent des rameaux en automne[1]. En fait, c'est surtout qu'après s'y être pendu, l'arbre s'est mis à fleurir, sa floraison se faisant autour de Pâques. Les fidèles y virent un signe miraculeux...
+Selon une légende, c'est à cet arbre que Judas se serait pendu après avoir trahi Jésus Christ. L'origine de cette légende n'est pas connue mais  est peut-être due à la forme de ses feuilles, rondes et plates comme des monnaies, ou bien aux gousses noires qui pendent des rameaux en automne. En fait, c'est surtout qu'après s'y être pendu, l'arbre s'est mis à fleurir, sa floraison se faisant autour de Pâques. Les fidèles y virent un signe miraculeux...
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
+          <t>Arbre_de_Judée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre hermaphrodite peut mesurer jusqu'à dix mètres de haut. Son écorce est d'abord grise puis vire au noir. Son port est tortueux avec une cime aplatie. Ramifié dès la base. Les bourgeons pointus et groupés s'écartent du rameau lorsqu'ils vont donner des fleurs.
 Les feuilles, sont rondes, cordiformes à la base, glabres et lisses. La face supérieure est vert pâle et mate, et la face inférieure glauque. La feuille a un long pétiole.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
+          <t>Arbre_de_Judée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,19 +570,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Cercis siliquastrum a été décrite par le naturaliste suédois Carl von Linné en 1753[2].
-Synonymie
-Homotypique
-Cercis florida Salisb[3]
-Cercis siliquosa St.-Lag[4]
-Siliquastrum arbor-judae Medik[5]
-Siliquastrum orbiculatum Moench, Meth[6]
-Taxinomie
-Liste des sous espèces
-Cercis siliquastrum subsp. siliquastrum
-Cercis siliquastrum subsp. hebecarpa</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cercis siliquastrum a été décrite par le naturaliste suédois Carl von Linné en 1753.
+</t>
         </is>
       </c>
     </row>
@@ -578,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
+          <t>Arbre_de_Judée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,144 +600,305 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Homotypique
+Cercis florida Salisb
+Cercis siliquosa St.-Lag
+Siliquastrum arbor-judae Medik
+Siliquastrum orbiculatum Moench, Meth</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des sous espèces
+Cercis siliquastrum subsp. siliquastrum
+Cercis siliquastrum subsp. hebecarpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est un arbre sciaphile à port étalé naturellement présent sur les matorrals méditerranéens. Il est rustique mais craint les gelées tardives. Il préfère les terrains calcaires et secs, et tolère les sols compactés, ce qui en fait un arbre bien adapté au milieu urbain[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre sciaphile à port étalé naturellement présent sur les matorrals méditerranéens. Il est rustique mais craint les gelées tardives. Il préfère les terrains calcaires et secs, et tolère les sols compactés, ce qui en fait un arbre bien adapté au milieu urbain.
 Les jeunes sujets sont fragiles lors des trois premières années où on veillera à les arroser en été et à les pailler en hiver. Une fois installé, cet arbre est très adapté à la sécheresse. Comme toutes les légumineuses, il peut se contenter de sols pauvres car il est capable de fixer l’azote atmosphérique.
 Sa croissance est rapide les premières années puis se ralentit.
 Il se reproduit par semis ou bouturage et fleurit au bout de cinq à six ans. Il faut privilégier la plantation de jeunes sujets car les plus vieux ne supportent pas d'être transplantés.
-Maladies et parasites
-Chancre, maladie du corail, Verticillium, cicadelles, et cochenilles peuvent poser des problèmes.
-Cultivars
-C. siliquastrum 'Alba' : se différencie de l'espèce type par sa floraison blanche plus tardive (avril-mai), sa taille plus réduite ainsi que par son feuillage vert acide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maladies et parasites</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chancre, maladie du corail, Verticillium, cicadelles, et cochenilles peuvent poser des problèmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C. siliquastrum 'Alba' : se différencie de l'espèce type par sa floraison blanche plus tardive (avril-mai), sa taille plus réduite ainsi que par son feuillage vert acide.
 C. siliquastrum 'Rubra' : fleurs d'un rose foncé
 C. siliquastrum 'Flore-plena' : fleurs doubles
 C. siliquastrum 'Sterilis' : ne produisant pas de gousses, et donc préféré par ceux qui jugent ces fruits inesthétiques.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre cauliflore planté dans les jardins pour l'ornement.
-« Les boutons floraux, les fleurs et les jeunes fruits encore tendres peuvent être consommés crus en salade. Leur saveur est agréablement acidulée. C'est surtout en Grèce et en Turquie qu'ils sont utilisés. On a également conservé les boutons floraux dans le vinaigre et fait des beignets avec les fleurs[8] ».
+« Les boutons floraux, les fleurs et les jeunes fruits encore tendres peuvent être consommés crus en salade. Leur saveur est agréablement acidulée. C'est surtout en Grèce et en Turquie qu'ils sont utilisés. On a également conservé les boutons floraux dans le vinaigre et fait des beignets avec les fleurs ».
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est parasité par une espèce de psylle nommée « psylle de l'arbre de Judée » (Cacopsylla pulchella) que l'on peut observer principalement au milieu du printemps ; elle migre en juin. Ainsi l'Arbre de Judée pourrait avoir un rôle dans la lutte biologique contre les psylles de l'olivier en attirant les prédateurs comme les punaises (Heteroptera sp.) et les guêpes (Hymenoptera) qui sont des insectes entomophages[9].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est parasité par une espèce de psylle nommée « psylle de l'arbre de Judée » (Cacopsylla pulchella) que l'on peut observer principalement au milieu du printemps ; elle migre en juin. Ainsi l'Arbre de Judée pourrait avoir un rôle dans la lutte biologique contre les psylles de l'olivier en attirant les prédateurs comme les punaises (Heteroptera sp.) et les guêpes (Hymenoptera) qui sont des insectes entomophages.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, le Gainier est le nom attribué au 21e jour du mois de germinal[10], c'est-à-dire généralement au 10 avril du calendrier grégorien.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Gainier est le nom attribué au 21e jour du mois de germinal, c'est-à-dire généralement au 10 avril du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arbre_de_Judée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_de_Jud%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est mentionné dans la chanson de Georges Brassens Auprès de mon arbre: « J'ai maintenant des frênes, des arbres de Judée, tous de bonne graine, de haute futaie. »
 Dans la sixième saison de la seconde série Doctor Who, le Docteur, joué par Matt Smith, est contaminé par le poison de l'arbre de Judée. 
